--- a/DataTable/AdventureConfigTable.xlsx
+++ b/DataTable/AdventureConfigTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fc6ad1120df1f34/문서/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21BC16C9-89D1-1D49-AF5F-40543A8EDC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{03F4F314-B5AD-44F0-9D08-D32A1CFE5BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2120" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdventureConfigTable" sheetId="1" r:id="rId1"/>
@@ -45,19 +45,10 @@
     <t>float</t>
   </si>
   <si>
-    <t>LootItem1Probability</t>
-  </si>
-  <si>
-    <t>LootItem2Probability</t>
-  </si>
-  <si>
     <t>LootItem3Probability</t>
   </si>
   <si>
     <t>LootItem4Probability</t>
-  </si>
-  <si>
-    <t>LootSeed1Probability</t>
   </si>
   <si>
     <t>LootSeed2Probability</t>
@@ -65,12 +56,24 @@
   <si>
     <t>LootSeed3Probability</t>
   </si>
+  <si>
+    <t>LootItem1Probability</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LootItem2Probability</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LootSeed1Probability</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -944,9 +947,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 테마">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -984,7 +987,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1090,7 +1093,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1232,27 +1235,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" thickBot="1"/>
-    <row r="2" spans="1:3">
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19" thickBot="1">
+    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -1274,78 +1277,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9">
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19" thickBot="1">
+    <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6">
         <v>0.25</v>
